--- a/test-artifacts/media-reports/media-pages.xlsx
+++ b/test-artifacts/media-reports/media-pages.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,10 +421,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B1-C1-T3</v>
+        <v>B1-C2-T3</v>
       </c>
       <c r="B2" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/early-acceptance-dental-andor-osteopathic-medicine-programs</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics</v>
       </c>
       <c r="C2" t="str">
         <v>failed</v>
@@ -441,55 +441,38 @@
         <v>B1-C2-T2</v>
       </c>
       <c r="B3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/aac/forms-and-documents</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/medieval-studies-minor/</v>
       </c>
       <c r="C3" t="str">
         <v>failed</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>B1-C2-T3</v>
+        <v>B1-C2-T1</v>
       </c>
       <c r="B4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler</v>
+        <v>https://dev-infostride-geneseo.pantheonsite.io/basic_page/virtual-summer-global-education-program/</v>
       </c>
       <c r="C4" t="str">
-        <v>failed</v>
+        <v>ok</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>B1-C2-T1</v>
-      </c>
-      <c r="B5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/academics/accelerated-masters-history-or-cultural-studies</v>
-      </c>
-      <c r="C5" t="str">
-        <v>failed</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>